--- a/오윤경.xlsx
+++ b/오윤경.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,38 +441,68 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gubun</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>WORK</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>CODE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TAT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>20230927</v>
@@ -487,24 +517,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5EV5F801</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>20231004</v>
@@ -519,24 +557,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5EV5F801</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>20231005</v>
@@ -551,24 +597,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>5EV4G013</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>20231005</v>
@@ -583,24 +641,36 @@
           <t>연장</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>5EV4G013</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>20231006</v>
@@ -615,24 +685,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>5EV5F801</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>20231010</v>
@@ -647,24 +729,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>5EV4G003</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>20231011</v>
@@ -679,24 +769,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>5EV4G013</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>20231016</v>
@@ -711,24 +813,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>5ES3F701</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>20231016</v>
@@ -743,24 +853,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>5EV4G012</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>20231017</v>
@@ -775,24 +893,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>5EV4G012</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>20231017</v>
@@ -807,24 +933,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>5EV4G002</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>20231017</v>
@@ -839,24 +973,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>5EV4G013</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>20231017</v>
@@ -871,24 +1013,32 @@
           <t>연장</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>5ES3F609</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>20231018</v>
@@ -903,24 +1053,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>5MCDF701</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>20231019</v>
@@ -935,24 +1093,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>5MCDD502</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>20231019</v>
@@ -967,24 +1133,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>5EV4G003</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>20231019</v>
@@ -999,24 +1173,32 @@
           <t>연장</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>5EV4G003</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>20231020</v>
@@ -1031,24 +1213,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>5EV4G014</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>20231020</v>
@@ -1063,24 +1253,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>5EGPF602</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>20231023</v>
@@ -1095,24 +1293,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>5MHVD302</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>20231023</v>
@@ -1127,24 +1333,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>5MCDF901</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>20231023</v>
@@ -1159,24 +1373,28 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>5MCDF001</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>20231024</v>
@@ -1191,24 +1409,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>5EV4G003</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>20231024</v>
@@ -1223,24 +1449,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>5MMMF901</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>20231024</v>
@@ -1255,24 +1489,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>5MCDF001</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>20231024</v>
@@ -1284,30 +1526,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5MMMF901</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+          <t>연장</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>5EV4G015</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20231024</v>
+        <v>20231025</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1316,27 +1566,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>연장</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5EV4G015</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0.5</v>
-      </c>
+          <t>주간</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>5EV4G002</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>20231025</v>
@@ -1351,24 +1613,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5EV4G002</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5ESPF802</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>20231025</v>
@@ -1383,27 +1653,39 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5ESPF802</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5ES3F609</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20231025</v>
+        <v>20231026</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1415,24 +1697,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>5ES3F609</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>20231026</v>
@@ -1447,24 +1741,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5ES3F609</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>5EV4G015</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>20231026</v>
@@ -1479,24 +1781,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>BYP</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>5EV4G015</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>20231026</v>
@@ -1508,30 +1818,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+          <t>연장</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>BYP</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>5EV4G015</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20231026</v>
+        <v>20231027</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1540,27 +1858,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>연장</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+          <t>주간</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>BYP</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>5EV4G015</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>20231027</v>
@@ -1575,27 +1901,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5EV4G015</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>5EGPF602</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20231027</v>
+        <v>20231030</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1607,24 +1941,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>5EGPF602</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>20231030</v>
@@ -1639,24 +1981,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5EGPF602</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>5EV4G001</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>20231030</v>
@@ -1671,24 +2025,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5EV4G001</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5EV4G014</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>20231030</v>
@@ -1703,27 +2069,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5EV4G014</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5ESPF804</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20231030</v>
+        <v>20231031</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1735,24 +2109,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5ESPF804</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5EV4G012</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>20231031</v>
@@ -1767,24 +2153,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>5EV4G012</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>20231031</v>
@@ -1799,27 +2193,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5EV4G012</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>5MMMG001</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20231031</v>
+        <v>20231101</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1831,24 +2233,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5MMMG001</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>5EV4G013</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>20231101</v>
@@ -1863,24 +2273,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5EV4G013</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>5ES3F609</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>20231101</v>
@@ -1895,27 +2313,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5ES3F609</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>5EV4G013</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20231101</v>
+        <v>20231102</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1927,24 +2353,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5EV4G013</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>5MOCD201</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>20231102</v>
@@ -1959,24 +2393,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5MOCD201</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>5EV5F801</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>20231102</v>
@@ -1991,24 +2433,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>5EV5F801</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>20231102</v>
@@ -2023,24 +2477,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5EV5F801</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>5EV4G003</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>20231102</v>
@@ -2052,30 +2518,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+          <t>연장</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>5EV5F801</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20231102</v>
+        <v>20231103</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2087,27 +2565,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5EV5F801</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>5EV4G014</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20231102</v>
+        <v>20231103</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2119,27 +2605,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5EV4G003</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>5ESPF804</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20231102</v>
+        <v>20231106</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2148,30 +2642,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>연장</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5EV5F801</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5</v>
-      </c>
+          <t>주간</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>5EGPF602</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20231103</v>
+        <v>20231106</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2183,27 +2685,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>5EV4G014</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>5EGPF602</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20231103</v>
+        <v>20231106</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2215,27 +2725,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>5ESPF804</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20231106</v>
+        <v>20231107</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2247,27 +2765,35 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>REV</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>5EGPF602</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5MCDD501</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20231106</v>
+        <v>20231107</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2279,27 +2805,31 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5EGPF602</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>TRAY</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>5MCDD501</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20231106</v>
+        <v>20231107</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2311,24 +2841,36 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5ESPF804</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>5EV4G015</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>20231107</v>
@@ -2343,24 +2885,32 @@
           <t>주간</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>TRAY</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5MCDD501</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>EXH</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>REV</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5EV4G015</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>20231107</v>
@@ -2372,151 +2922,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>TRAY</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5MCDD501</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0.25</v>
-      </c>
+          <t>연장</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B62" t="n">
-        <v>20231107</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>오윤경</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>5MCDD501</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B63" t="n">
-        <v>20231107</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>오윤경</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5EV4G015</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B64" t="n">
-        <v>20231107</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>오윤경</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>주간</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>REV</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>5EV4G015</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B65" t="n">
-        <v>20231107</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>오윤경</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>연장</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>도면작업</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>PCW</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>도면작업</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>5EV5F802</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
